--- a/artfynd/A 29556-2023 artfynd.xlsx
+++ b/artfynd/A 29556-2023 artfynd.xlsx
@@ -27491,7 +27491,7 @@
         <v>129679309</v>
       </c>
       <c r="B252" t="n">
-        <v>87043</v>
+        <v>87047</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/artfynd/A 29556-2023 artfynd.xlsx
+++ b/artfynd/A 29556-2023 artfynd.xlsx
@@ -15951,7 +15951,7 @@
         <v>129610679</v>
       </c>
       <c r="B146" t="n">
-        <v>91141</v>
+        <v>91339</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -16061,9 +16061,14 @@
           <t>Gran, men finns tall; kalk</t>
         </is>
       </c>
+      <c r="AQ146" t="inlineStr">
+        <is>
+          <t>Björn Bråvander</t>
+        </is>
+      </c>
       <c r="AR146" t="inlineStr">
         <is>
-          <t>Kollekt sparat</t>
+          <t>BB-1040</t>
         </is>
       </c>
       <c r="AT146" t="inlineStr"/>
@@ -16077,7 +16082,11 @@
           <t>Björn Bråvander</t>
         </is>
       </c>
-      <c r="AY146" t="inlineStr"/>
+      <c r="AY146" t="inlineStr">
+        <is>
+          <t>Fynd med DNA-sekvens - 1</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
